--- a/public/quiz_data.xlsx
+++ b/public/quiz_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhadip/lpugame/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEAEF93-2224-AB48-8CCC-210BC38AFD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCD23BC-9E1E-DF47-A057-D84566F969C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>CorrectAnswer</t>
   </si>
@@ -107,6 +107,24 @@
   </si>
   <si>
     <t>what is 2 + 2</t>
+  </si>
+  <si>
+    <t>JAVA CA1</t>
+  </si>
+  <si>
+    <t>Java is a oop oriented lang?</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>neither</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -474,21 +492,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -652,6 +670,29 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
